--- a/test/inputfilesxl/Book1 Single Sheet.xlsx
+++ b/test/inputfilesxl/Book1 Single Sheet.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\github\docto\test\inputfilesxl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\github\docTo\test\inputfilesxl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73A403C-76A8-4CE6-9D89-C17FD6343915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED249EB-7436-49B6-931A-580057AE9D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{74479F02-5937-438C-A237-01B02F23F0D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>This is sheet 1</t>
+  </si>
+  <si>
+    <t>this si seehe 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thi is seehe 2 </t>
   </si>
 </sst>
 </file>
@@ -411,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931D8943-84F4-43AE-990E-C79BEF129ED4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -419,9 +426,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -431,9 +443,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE81CD2-D5D9-4541-AE93-1E0F9D1A8BAA}">
+  <dimension ref="D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3D0D66-1F87-46AC-B044-BB0106095227}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
